--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11145" windowHeight="15945"/>
+    <workbookView windowWidth="22665" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="20">
   <si>
     <t>sizes</t>
   </si>
@@ -33,16 +33,59 @@
   <si>
     <t>min for 1</t>
   </si>
+  <si>
+    <t>unfiltered</t>
+  </si>
+  <si>
+    <t>filtered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of neibours </t>
+  </si>
+  <si>
+    <t>Accuarcy</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>manhattan</t>
+  </si>
+  <si>
+    <t>seuclidean</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>rbf</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,16 +96,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,90 +113,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,15 +136,98 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +249,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,109 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,25 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +440,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,6 +506,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -458,197 +540,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,6 +759,1927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$38,Sheet1!$D$42,Sheet1!$D$46,Sheet1!$D$50,Sheet1!$D$54,Sheet1!$D$58,Sheet1!$D$62,Sheet1!$D$66,Sheet1!$D$70,Sheet1!$D$74,Sheet1!$D$78,Sheet1!$D$82,Sheet1!$D$86,Sheet1!$D$90,Sheet1!$D$94)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.334978408389882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.332510795805058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36335595311536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.381863047501542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.392967304133251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.397902529302899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.405922270203578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.403454657618753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.404688463911166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.402837754472547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.402837754472547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.396051819864281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.394201110425663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.392967304133251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="989995478"/>
+        <c:axId val="453386862"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="989995478"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453386862"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453386862"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.42"/>
+          <c:min val="0.33"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989995478"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.03"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$141,Sheet1!$D$145,Sheet1!$D$149,Sheet1!$D$153,Sheet1!$D$157)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>poly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$142,Sheet1!$D$146,Sheet1!$D$150,Sheet1!$D$154,Sheet1!$D$158)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.285626156693399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.402220851326341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.355336212214682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.297347316471314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.231955582973473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$143</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rbf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$143,Sheet1!$D$147,Sheet1!$D$151,Sheet1!$D$155,Sheet1!$D$159)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.395434916718075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$144,Sheet1!$D$148,Sheet1!$D$152,Sheet1!$D$156,Sheet1!$D$160)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.169031462060456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169031462060456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.169031462060456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169031462060456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.169031462060456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="910967404"/>
+        <c:axId val="118341729"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="910967404"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118341729"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118341729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910967404"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666115</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1247140" y="16689705"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="687070" y="27792680"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,15 +2940,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G26"/>
+  <dimension ref="A3:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -1215,8 +3190,1379 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.334978408389882</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.334978408389882</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.333127698951264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.338679827267119</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.332510795805058</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.332510795805058</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.331276989512646</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.334978408389882</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.36335595311536</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.36335595311536</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.358420727945712</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.361505243676742</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.381863047501542</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.381863047501542</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.376927822331893</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.386181369524984</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.392967304133251</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.392967304133251</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.38988278840222</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.396051819864281</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.397902529302899</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.397902529302899</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.394201110425663</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.396051819864281</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.405922270203578</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.405922270203578</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.398519432449105</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.397902529302899</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.403454657618753</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.403454657618753</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.400987045033929</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.401603948180135</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.404688463911166</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.404688463911166</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.400370141887723</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.404688463911166</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.402837754472547</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.402837754472547</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.399136335595311</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.399136335595311</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.402837754472547</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.402837754472547</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.399753238741517</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.391116594694632</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.396051819864281</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.396051819864281</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.393584207279457</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.391116594694632</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.396051819864281</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.394201110425663</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.394201110425663</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.390499691548426</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.392967304133251</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.392967304133251</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.389265885256014</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.389265885256014</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0.169031462060456</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>0.402220851326341</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>0.169031462060456</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>0.355336212214682</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>0.169031462060456</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>0.297347316471314</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>0.169031462060456</v>
+      </c>
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>0.285626156693399</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>0.231955582973473</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>0.395434916718075</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>0.169031462060456</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="G139:I139"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project.xlsx
+++ b/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="13125"/>
+    <workbookView windowWidth="28425" windowHeight="16365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="20">
   <si>
     <t>sizes</t>
   </si>
@@ -81,11 +81,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,52 +93,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +118,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -172,24 +149,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +187,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -211,30 +225,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +249,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,91 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,39 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,21 +454,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +475,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,153 +483,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,7 +775,44 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>Accuracy for different K nearest neighbor metrices </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -822,60 +859,135 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$38,Sheet1!$D$42,Sheet1!$D$46,Sheet1!$D$50,Sheet1!$D$54,Sheet1!$D$58,Sheet1!$D$62,Sheet1!$D$66,Sheet1!$D$70,Sheet1!$D$74,Sheet1!$D$78,Sheet1!$D$82,Sheet1!$D$86,Sheet1!$D$90,Sheet1!$D$94)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="15"/>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.334978408389882</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.332510795805058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36335595311536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.381863047501542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.392967304133251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.397902529302899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.405922270203578</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.403454657618753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.404688463911166</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.402837754472547</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.402837754472547</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.396051819864281</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.394201110425663</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.392967304133251</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>minkowski</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seuclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -898,6 +1010,43 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Number of neighbors</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -963,6 +1112,43 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1087,6 +1273,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Accuaracy of different SVM kernels</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1117,35 +1340,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$141,Sheet1!$D$145,Sheet1!$D$149,Sheet1!$D$153,Sheet1!$D$157)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1172,35 +1383,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$142,Sheet1!$D$146,Sheet1!$D$150,Sheet1!$D$154,Sheet1!$D$158)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.285626156693399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.402220851326341</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.355336212214682</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.297347316471314</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.231955582973473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1227,35 +1426,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$143,Sheet1!$D$147,Sheet1!$D$151,Sheet1!$D$155,Sheet1!$D$159)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.395434916718075</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1282,35 +1469,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$144,Sheet1!$D$148,Sheet1!$D$152,Sheet1!$D$156,Sheet1!$D$160)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.169031462060456</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.169031462060456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.169031462060456</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.169031462060456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.169031462060456</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1321,7 +1496,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="910967404"/>
         <c:axId val="118341729"/>
@@ -1333,6 +1508,43 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Degrees</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1396,6 +1608,43 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1427,6 +1676,1502 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="910967404"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1200"/>
+              <a:t>Accuracy for different K nearest neighbor metrices</a:t>
+            </a:r>
+            <a:endParaRPr sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.134732612912164"/>
+          <c:y val="0.0380929563967417"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$38:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.415792720542874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.415175817396668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.417026526835286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.418260333127698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.411474398519432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.413942011104256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.405305367057371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.404688463911166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399753238741517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.396051819864281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.394818013571869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.390499691548426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.388648982109808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.384947563232572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.384947563232572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minkowski</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$53:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.415792720542874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.415175817396668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.417026526835286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.418260333127698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.411474398519432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.413942011104256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.405305367057371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.404688463911166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399753238741517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.396051819864281</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.394818013571869</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.390499691548426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.388648982109808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.384947563232572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.384947563232572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>manhattan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$68:$N$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.414558914250462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.413942011104256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.415175817396668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.418260333127698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.412091301665638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.404071560764959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.404071560764959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399136335595311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.396668723010487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.392350400987045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.390499691548426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38988278840222</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.385564466378778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.387415175817396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seuclidean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$83:$N$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.41640962368908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.415792720542874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.415792720542874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.417026526835286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.409006785934608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.406539173349784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.402220851326341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.399136335595311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.398519432449105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.393584207279457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.392967304133251</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.394201110425663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.392350400987045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.387415175817396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.383096853793954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="370530801"/>
+        <c:axId val="116042205"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370530801"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of neighbors</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.396203934607925"/>
+              <c:y val="0.73646382367034"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116042205"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116042205"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.425"/>
+          <c:min val="0.38"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="" altLang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0322804100858964"/>
+              <c:y val="0.31018207954001"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370530801"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Accuaracy of different SVM kernels</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$141</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$141:$N$145</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.351017890191239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.351017890191239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.351017890191239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.351017890191239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.351017890191239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>poly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$146:$N$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.349784083898827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.418877236273905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.372609500308451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31030228254164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.255397902529302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rbf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$151:$N$155</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.412708204811844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$156:$N$160</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.173349784083898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.173349784083898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173349784083898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173349784083898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.173349784083898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="584111584"/>
+        <c:axId val="671425155"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="584111584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Degrees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671425155"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671425155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584111584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="118645050"/>
+        <c:axId val="119703340"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="118645050"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119703340"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119703340"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118645050"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1585,6 +3330,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2102,6 +3967,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2622,15 +6035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561340</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2638,7 +6051,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1247140" y="16689705"/>
+        <a:off x="1156335" y="17072610"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2674,6 +6087,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1411605</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1376680</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11031855" y="17959070"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262255</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>885190</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12511405" y="27829510"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>970915</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7495540" y="27700605"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2940,10 +6443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:I160"/>
+  <dimension ref="A3:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G138" workbookViewId="0">
+      <selection activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2954,6 +6457,9 @@
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="22.625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="25.8666666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -3190,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:14">
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -3201,8 +6707,13 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -3221,8 +6732,17 @@
       <c r="I37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -3238,8 +6758,17 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.415792720542874</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
         <v>12</v>
       </c>
@@ -3255,8 +6784,14 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.415175817396668</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -3272,8 +6807,14 @@
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.417026526835286</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -3289,8 +6830,14 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.418260333127698</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -3306,8 +6853,14 @@
       <c r="H42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.411474398519432</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" t="s">
         <v>12</v>
       </c>
@@ -3323,8 +6876,14 @@
       <c r="H43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.413942011104256</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>13</v>
       </c>
@@ -3340,8 +6899,14 @@
       <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.405305367057371</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" t="s">
         <v>14</v>
       </c>
@@ -3357,8 +6922,14 @@
       <c r="H45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.404688463911166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -3374,8 +6945,14 @@
       <c r="H46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="M46">
+        <v>9</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.399753238741517</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -3391,8 +6968,14 @@
       <c r="H47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.396051819864281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -3408,8 +6991,14 @@
       <c r="H48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="M48">
+        <v>11</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.394818013571869</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
         <v>14</v>
       </c>
@@ -3425,8 +7014,14 @@
       <c r="H49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="M49">
+        <v>12</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.390499691548426</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -3442,8 +7037,14 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0.388648982109808</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -3459,8 +7060,14 @@
       <c r="H51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.384947563232572</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -3476,8 +7083,14 @@
       <c r="H52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.384947563232572</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -3493,8 +7106,17 @@
       <c r="H53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.415792720542874</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -3510,8 +7132,14 @@
       <c r="H54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.415175817396668</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
         <v>12</v>
       </c>
@@ -3527,8 +7155,14 @@
       <c r="H55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.417026526835286</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
       <c r="B56" t="s">
         <v>13</v>
       </c>
@@ -3544,8 +7178,14 @@
       <c r="H56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.418260333127698</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
         <v>14</v>
       </c>
@@ -3561,8 +7201,14 @@
       <c r="H57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.411474398519432</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -3578,8 +7224,14 @@
       <c r="H58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.413942011104256</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
       <c r="B59" t="s">
         <v>12</v>
       </c>
@@ -3595,8 +7247,14 @@
       <c r="H59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="M59">
+        <v>7</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.405305367057371</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
       <c r="B60" t="s">
         <v>13</v>
       </c>
@@ -3612,8 +7270,14 @@
       <c r="H60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0.404688463911166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
       <c r="B61" t="s">
         <v>14</v>
       </c>
@@ -3629,8 +7293,14 @@
       <c r="H61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.399753238741517</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -3646,8 +7316,14 @@
       <c r="H62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="M62">
+        <v>10</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.396051819864281</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
       <c r="B63" t="s">
         <v>12</v>
       </c>
@@ -3663,8 +7339,14 @@
       <c r="H63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="M63">
+        <v>11</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.394818013571869</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
       <c r="B64" t="s">
         <v>13</v>
       </c>
@@ -3680,8 +7362,14 @@
       <c r="H64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="M64">
+        <v>12</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.390499691548426</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
       <c r="B65" t="s">
         <v>14</v>
       </c>
@@ -3697,8 +7385,14 @@
       <c r="H65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.388648982109808</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" t="s">
         <v>11</v>
       </c>
@@ -3714,8 +7408,14 @@
       <c r="H66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="M66">
+        <v>14</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.384947563232572</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
       <c r="B67" t="s">
         <v>12</v>
       </c>
@@ -3731,8 +7431,14 @@
       <c r="H67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="M67">
+        <v>15</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.384947563232572</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
       <c r="B68" t="s">
         <v>13</v>
       </c>
@@ -3748,8 +7454,17 @@
       <c r="H68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="L68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0.414558914250462</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
       <c r="B69" t="s">
         <v>14</v>
       </c>
@@ -3765,8 +7480,14 @@
       <c r="H69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.413942011104256</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
       <c r="B70" t="s">
         <v>11</v>
       </c>
@@ -3782,8 +7503,14 @@
       <c r="H70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.415175817396668</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" t="s">
         <v>12</v>
       </c>
@@ -3799,8 +7526,14 @@
       <c r="H71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.418260333127698</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" t="s">
         <v>13</v>
       </c>
@@ -3816,8 +7549,14 @@
       <c r="H72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.412091301665638</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" t="s">
         <v>14</v>
       </c>
@@ -3833,8 +7572,14 @@
       <c r="H73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -3850,8 +7595,14 @@
       <c r="H74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="M74">
+        <v>7</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.404071560764959</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -3867,8 +7618,14 @@
       <c r="H75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="M75">
+        <v>8</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.404071560764959</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
       <c r="B76" t="s">
         <v>13</v>
       </c>
@@ -3884,8 +7641,14 @@
       <c r="H76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="M76">
+        <v>9</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0.399136335595311</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
       <c r="B77" t="s">
         <v>14</v>
       </c>
@@ -3901,8 +7664,14 @@
       <c r="H77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.396668723010487</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
       <c r="B78" t="s">
         <v>11</v>
       </c>
@@ -3918,8 +7687,14 @@
       <c r="H78">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="M78">
+        <v>11</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.392350400987045</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" t="s">
         <v>12</v>
       </c>
@@ -3935,8 +7710,14 @@
       <c r="H79">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="M79">
+        <v>12</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0.390499691548426</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" t="s">
         <v>13</v>
       </c>
@@ -3952,8 +7733,14 @@
       <c r="H80">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="M80">
+        <v>13</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0.38988278840222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
       <c r="B81" t="s">
         <v>14</v>
       </c>
@@ -3969,8 +7756,14 @@
       <c r="H81">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="M81">
+        <v>14</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.385564466378778</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82" t="s">
         <v>11</v>
       </c>
@@ -3986,8 +7779,14 @@
       <c r="H82">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="M82">
+        <v>15</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0.387415175817396</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
       <c r="B83" t="s">
         <v>12</v>
       </c>
@@ -4003,8 +7802,17 @@
       <c r="H83">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="L83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.41640962368908</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" t="s">
         <v>13</v>
       </c>
@@ -4020,8 +7828,14 @@
       <c r="H84">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0.415792720542874</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" t="s">
         <v>14</v>
       </c>
@@ -4037,8 +7851,14 @@
       <c r="H85">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.415792720542874</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" t="s">
         <v>11</v>
       </c>
@@ -4054,8 +7874,14 @@
       <c r="H86">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0.417026526835286</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87" t="s">
         <v>12</v>
       </c>
@@ -4071,8 +7897,14 @@
       <c r="H87">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0.409006785934608</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88" t="s">
         <v>13</v>
       </c>
@@ -4088,8 +7920,14 @@
       <c r="H88">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="M88">
+        <v>6</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0.406539173349784</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89" t="s">
         <v>14</v>
       </c>
@@ -4105,8 +7943,14 @@
       <c r="H89">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="M89">
+        <v>7</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.402220851326341</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90" t="s">
         <v>11</v>
       </c>
@@ -4122,8 +7966,14 @@
       <c r="H90">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="M90">
+        <v>8</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0.399136335595311</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
       <c r="B91" t="s">
         <v>12</v>
       </c>
@@ -4139,8 +7989,14 @@
       <c r="H91">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="M91">
+        <v>9</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0.398519432449105</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
       <c r="B92" t="s">
         <v>13</v>
       </c>
@@ -4156,8 +8012,14 @@
       <c r="H92">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="M92">
+        <v>10</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0.393584207279457</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14">
       <c r="B93" t="s">
         <v>14</v>
       </c>
@@ -4173,8 +8035,14 @@
       <c r="H93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="M93">
+        <v>11</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0.392967304133251</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
       <c r="B94" t="s">
         <v>11</v>
       </c>
@@ -4190,8 +8058,14 @@
       <c r="H94">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="M94">
+        <v>12</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0.394201110425663</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
       <c r="B95" t="s">
         <v>12</v>
       </c>
@@ -4207,8 +8081,14 @@
       <c r="H95">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="M95">
+        <v>13</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0.392350400987045</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14">
       <c r="B96" t="s">
         <v>13</v>
       </c>
@@ -4224,8 +8104,14 @@
       <c r="H96">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="2:8">
+      <c r="M96">
+        <v>14</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0.387415175817396</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
       <c r="B97" t="s">
         <v>14</v>
       </c>
@@ -4241,8 +8127,14 @@
       <c r="H97">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="2:9">
+      <c r="M97">
+        <v>15</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0.383096853793954</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14">
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
@@ -4253,8 +8145,13 @@
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9">
+      <c r="L139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14">
       <c r="B140" t="s">
         <v>8</v>
       </c>
@@ -4273,8 +8170,17 @@
       <c r="I140" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="2:7">
+      <c r="L140" t="s">
+        <v>8</v>
+      </c>
+      <c r="M140" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14">
       <c r="B141" t="s">
         <v>16</v>
       </c>
@@ -4287,8 +8193,17 @@
       <c r="G141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="2:7">
+      <c r="L141" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141" s="2">
+        <v>0.351017890191239</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14">
       <c r="B142" t="s">
         <v>17</v>
       </c>
@@ -4301,8 +8216,14 @@
       <c r="G142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="2:7">
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142" s="2">
+        <v>0.351017890191239</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14">
       <c r="B143" t="s">
         <v>18</v>
       </c>
@@ -4315,8 +8236,14 @@
       <c r="G143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="2:7">
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0.351017890191239</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14">
       <c r="B144" t="s">
         <v>19</v>
       </c>
@@ -4329,8 +8256,14 @@
       <c r="G144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="2:7">
+      <c r="M144">
+        <v>4</v>
+      </c>
+      <c r="N144" s="2">
+        <v>0.351017890191239</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14">
       <c r="B145" t="s">
         <v>16</v>
       </c>
@@ -4343,8 +8276,14 @@
       <c r="G145" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="2:7">
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145" s="2">
+        <v>0.351017890191239</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14">
       <c r="B146" t="s">
         <v>17</v>
       </c>
@@ -4357,8 +8296,17 @@
       <c r="G146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="2:7">
+      <c r="L146" t="s">
+        <v>17</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146" s="2">
+        <v>0.349784083898827</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14">
       <c r="B147" t="s">
         <v>18</v>
       </c>
@@ -4371,8 +8319,14 @@
       <c r="G147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="2:7">
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147" s="2">
+        <v>0.418877236273905</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14">
       <c r="B148" t="s">
         <v>19</v>
       </c>
@@ -4385,8 +8339,14 @@
       <c r="G148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="2:7">
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148" s="2">
+        <v>0.372609500308451</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14">
       <c r="B149" t="s">
         <v>16</v>
       </c>
@@ -4399,8 +8359,14 @@
       <c r="G149" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="2:7">
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149" s="2">
+        <v>0.31030228254164</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14">
       <c r="B150" t="s">
         <v>17</v>
       </c>
@@ -4413,8 +8379,14 @@
       <c r="G150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="2:7">
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150" s="2">
+        <v>0.255397902529302</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14">
       <c r="B151" t="s">
         <v>18</v>
       </c>
@@ -4427,8 +8399,17 @@
       <c r="G151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="2:7">
+      <c r="L151" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14">
       <c r="B152" t="s">
         <v>19</v>
       </c>
@@ -4441,8 +8422,14 @@
       <c r="G152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="2:7">
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14">
       <c r="B153" t="s">
         <v>16</v>
       </c>
@@ -4455,8 +8442,14 @@
       <c r="G153" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="2:7">
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14">
       <c r="B154" t="s">
         <v>17</v>
       </c>
@@ -4469,8 +8462,14 @@
       <c r="G154" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="2:7">
+      <c r="M154">
+        <v>4</v>
+      </c>
+      <c r="N154" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14">
       <c r="B155" t="s">
         <v>18</v>
       </c>
@@ -4483,8 +8482,14 @@
       <c r="G155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="2:7">
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155" s="2">
+        <v>0.412708204811844</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14">
       <c r="B156" t="s">
         <v>19</v>
       </c>
@@ -4497,8 +8502,17 @@
       <c r="G156" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="2:7">
+      <c r="L156" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156" s="2">
+        <v>0.173349784083898</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14">
       <c r="B157" t="s">
         <v>16</v>
       </c>
@@ -4511,8 +8525,14 @@
       <c r="G157" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="2:7">
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157" s="2">
+        <v>0.173349784083898</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14">
       <c r="B158" t="s">
         <v>17</v>
       </c>
@@ -4525,8 +8545,14 @@
       <c r="G158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="2:7">
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158" s="2">
+        <v>0.173349784083898</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14">
       <c r="B159" t="s">
         <v>18</v>
       </c>
@@ -4539,8 +8565,14 @@
       <c r="G159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="2:7">
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0.173349784083898</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14">
       <c r="B160" t="s">
         <v>19</v>
       </c>
@@ -4553,13 +8585,21 @@
       <c r="G160" t="s">
         <v>19</v>
       </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0.173349784083898</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="B139:D139"/>
     <mergeCell ref="G139:I139"/>
+    <mergeCell ref="L139:N139"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
